--- a/data/trans_orig/P79A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>7935</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1892766862625999</v>
+        <v>0.1892766862625998</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>7935</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1892766862625999</v>
+        <v>0.1892766862625998</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>7935</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8107233137374001</v>
+        <v>0.8107233137374</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>7935</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8107233137374001</v>
+        <v>0.8107233137374</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>3846</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6473533052537634</v>
+        <v>0.6473533052537636</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>3255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6254</v>
+        <v>6203</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4616706228584277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1134395617311693</v>
+        <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.887081977513302</v>
+        <v>0.8798330652659928</v>
       </c>
     </row>
     <row r="11">
@@ -1163,7 +1163,7 @@
         <v>2439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>799</v>
+        <v>643</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>3204</v>
@@ -1172,7 +1172,7 @@
         <v>0.7612007674516322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2492401206635614</v>
+        <v>0.2006250794113216</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1184,19 +1184,19 @@
         <v>3795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>797</v>
+        <v>847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6250</v>
+        <v>7050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5383293771415724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1130491203283315</v>
+        <v>0.120166934734007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8865604382688308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1322,7 +1322,7 @@
         <v>6813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3543</v>
+        <v>3842</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>7888</v>
@@ -1331,7 +1331,7 @@
         <v>0.8636584588211943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.449130626662771</v>
+        <v>0.4870448535460294</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4345</v>
+        <v>4046</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1363415411788057</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5508342270452009</v>
+        <v>0.5129551464539708</v>
       </c>
     </row>
     <row r="15">
@@ -1843,19 +1843,19 @@
         <v>8704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -1864,19 +1864,19 @@
         <v>9714</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -1885,19 +1885,19 @@
         <v>18417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="23">
@@ -1914,19 +1914,19 @@
         <v>10041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -1935,19 +1935,19 @@
         <v>2439</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -1956,19 +1956,19 @@
         <v>12481</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="24">
